--- a/data/trans_dic/P32A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04069727286718818</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.04297737968326767</v>
+        <v>0.04297737968326768</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.005513405611783708</v>
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005765832743582566</v>
+        <v>0.005938787079873175</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01685774435284912</v>
+        <v>0.01747670514600372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0229082571621257</v>
+        <v>0.02401824985597417</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02424132857360324</v>
+        <v>0.02445864224570416</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.005341504491334859</v>
+        <v>0.005707307704723484</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01195609937166068</v>
+        <v>0.01198883773692206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01988213075293997</v>
+        <v>0.0193055213690316</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02191995587454482</v>
+        <v>0.02146354467777807</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03051993734968975</v>
+        <v>0.03045598945548937</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05341066816800404</v>
+        <v>0.05331439755251721</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06555527891038652</v>
+        <v>0.06620658305455678</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06891363086091197</v>
+        <v>0.06881538523768362</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02839125924905187</v>
+        <v>0.02739612596922609</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.05666529000457739</v>
+        <v>0.06046693549847779</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04066458464297482</v>
+        <v>0.04696639347683637</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02464147378548228</v>
+        <v>0.02548348291946074</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03611196171523365</v>
+        <v>0.03907688188654102</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0530235307450961</v>
+        <v>0.05540941293612625</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05611242949193177</v>
+        <v>0.05679544330759119</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005566087504485531</v>
+        <v>0.005814361107807237</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01882973229818047</v>
+        <v>0.01913368701710061</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01176214561468943</v>
+        <v>0.01154443288600177</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005689713962442808</v>
+        <v>0.005610418115305595</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006765165691787868</v>
+        <v>0.006572394836454415</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002602810917465389</v>
+        <v>0.002774327940337291</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01338503519639448</v>
+        <v>0.01326730471155089</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004082678996532346</v>
+        <v>0.00424007726113746</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01724330748499784</v>
+        <v>0.01688691568128083</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01001490092572401</v>
+        <v>0.009011566244884636</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01088145189014182</v>
+        <v>0.010478628118927</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01909750400663687</v>
+        <v>0.01835827054116051</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03964802907729121</v>
+        <v>0.03961366607705748</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02721058215652374</v>
+        <v>0.02890936474808327</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01950295082722422</v>
+        <v>0.01912119421417309</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.009563332691137702</v>
+        <v>0.009453941932889077</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02996991185671925</v>
+        <v>0.02842790336943011</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01578978950847864</v>
+        <v>0.01511993249842336</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04572636398359362</v>
+        <v>0.04930015070647153</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01301122699148996</v>
+        <v>0.01325293972605114</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03266867518113982</v>
+        <v>0.03249447940597903</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02090362486676387</v>
+        <v>0.02071857672760456</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02508277384934442</v>
+        <v>0.02381114944936543</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.01524581590590543</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.01917651630922746</v>
+        <v>0.01917651630922745</v>
       </c>
     </row>
     <row r="11">
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01018967811510679</v>
+        <v>0.01077308510893592</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -994,22 +994,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01237770533991736</v>
+        <v>0.01097066073518981</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007239733237016093</v>
+        <v>0.00623463847254275</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001570920746142984</v>
+        <v>0.001553182961122953</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.001531364803230537</v>
+        <v>0.001533370349247372</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007339016399197524</v>
+        <v>0.007588825613447024</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01060529299095454</v>
+        <v>0.01119911597114476</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02019334320886997</v>
+        <v>0.01660147963214253</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01859237002758908</v>
+        <v>0.01869536253577836</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01838707070075804</v>
+        <v>0.01662052464146691</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03776648589420589</v>
+        <v>0.03989461736551202</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02355675514536357</v>
+        <v>0.02615406122182096</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01852180899069554</v>
+        <v>0.02028428487331174</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05670568995036262</v>
+        <v>0.05343425020917127</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03283233880634594</v>
+        <v>0.03401052627308244</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0151249251283916</v>
+        <v>0.01413781448998408</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01378878743610713</v>
+        <v>0.01403843807691439</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0286959418706104</v>
+        <v>0.02925163854433344</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02987399400396631</v>
+        <v>0.03081392214759729</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006553849995549054</v>
+        <v>0.006994169884733087</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01876544230287982</v>
+        <v>0.01946975847879181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01387186084816222</v>
+        <v>0.01400892314853335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0129162815309768</v>
+        <v>0.01333336922593404</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.001031926920405972</v>
+        <v>0.0003932406261777745</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.00378960129705333</v>
+        <v>0.0039753201607172</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.00773934561943127</v>
+        <v>0.007350916276173553</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0131041538614798</v>
+        <v>0.01297346818839233</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.00534995931607798</v>
+        <v>0.005481135541557372</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01420986569667392</v>
+        <v>0.01455547671305095</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01341357871038951</v>
+        <v>0.01331725889711716</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0151699574313796</v>
+        <v>0.0148673715735322</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01605121709184693</v>
+        <v>0.01666670361010787</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03362909371420062</v>
+        <v>0.03464220887425058</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02701899953137173</v>
+        <v>0.02705604405298642</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02541557176091507</v>
+        <v>0.02549421545902455</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.009080710637896481</v>
+        <v>0.009046118031454085</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01712486952277045</v>
+        <v>0.01705469296001155</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0230748360931666</v>
+        <v>0.02168096394119288</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03586497080704326</v>
+        <v>0.0345829701494376</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01237587289231625</v>
+        <v>0.01255567199229491</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02533765895338564</v>
+        <v>0.0253058047936329</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02333893527735481</v>
+        <v>0.02281229280287717</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0260173264414623</v>
+        <v>0.02555089631771095</v>
       </c>
     </row>
     <row r="16">
@@ -1459,16 +1459,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2716</v>
+        <v>2797</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8591</v>
+        <v>8907</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8225</v>
+        <v>8623</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6248</v>
+        <v>6304</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1481,16 +1481,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3411</v>
+        <v>3644</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8845</v>
+        <v>8870</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9802</v>
+        <v>9518</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7292</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="7">
@@ -1501,38 +1501,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14375</v>
+        <v>14345</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27220</v>
+        <v>27171</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23536</v>
+        <v>23770</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17761</v>
+        <v>17736</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4757</v>
+        <v>4590</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>7592</v>
+        <v>8101</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3047</v>
+        <v>3519</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15734</v>
+        <v>16272</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>26716</v>
+        <v>28910</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26141</v>
+        <v>27317</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>18666</v>
+        <v>18894</v>
       </c>
     </row>
     <row r="8">
@@ -1635,40 +1635,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5897</v>
+        <v>6160</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22481</v>
+        <v>22843</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14751</v>
+        <v>14478</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5921</v>
+        <v>5838</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4005</v>
+        <v>3890</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1899</v>
+        <v>2024</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7432</v>
+        <v>7367</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6501</v>
+        <v>6751</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>30793</v>
+        <v>30157</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>19866</v>
+        <v>17876</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>17366</v>
+        <v>16723</v>
       </c>
     </row>
     <row r="11">
@@ -1679,40 +1679,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20232</v>
+        <v>19449</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47335</v>
+        <v>47294</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34125</v>
+        <v>36255</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20296</v>
+        <v>19898</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5096</v>
+        <v>5038</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>17740</v>
+        <v>16827</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11520</v>
+        <v>11031</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25390</v>
+        <v>27374</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>20717</v>
+        <v>21102</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>58340</v>
+        <v>58029</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>41466</v>
+        <v>41099</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>40030</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="12">
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3737</v>
+        <v>3950</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3462</v>
+        <v>3069</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1918</v>
+        <v>1651</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4823</v>
+        <v>4988</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6698</v>
+        <v>7073</v>
       </c>
     </row>
     <row r="15">
@@ -1859,40 +1859,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7078</v>
+        <v>5819</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6065</v>
+        <v>6098</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6942</v>
+        <v>6275</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13849</v>
+        <v>14629</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4549</v>
+        <v>5051</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4118</v>
+        <v>4510</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15861</v>
+        <v>14946</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8696</v>
+        <v>9008</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8222</v>
+        <v>7686</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7564</v>
+        <v>7701</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>18860</v>
+        <v>19225</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18867</v>
+        <v>19461</v>
       </c>
     </row>
     <row r="16">
@@ -1995,40 +1995,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12327</v>
+        <v>13155</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>38089</v>
+        <v>39518</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>27614</v>
+        <v>27887</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21506</v>
+        <v>22201</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>922</v>
+        <v>351</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3958</v>
+        <v>4152</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8848</v>
+        <v>8404</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>11729</v>
+        <v>11612</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14843</v>
+        <v>15207</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>43683</v>
+        <v>44746</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>42037</v>
+        <v>41735</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>38837</v>
+        <v>38062</v>
       </c>
     </row>
     <row r="19">
@@ -2039,40 +2039,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30191</v>
+        <v>31348</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>68258</v>
+        <v>70314</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>53785</v>
+        <v>53859</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>42319</v>
+        <v>42450</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8114</v>
+        <v>8083</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>17886</v>
+        <v>17813</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26381</v>
+        <v>24787</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>32101</v>
+        <v>30954</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34336</v>
+        <v>34834</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>77892</v>
+        <v>77794</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>73142</v>
+        <v>71492</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>66608</v>
+        <v>65413</v>
       </c>
     </row>
     <row r="20">
